--- a/Autonomous/TurnTesting.xlsx
+++ b/Autonomous/TurnTesting.xlsx
@@ -156,7 +156,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2567876838698619E-2"/>
+          <c:y val="0.1318381112984823"/>
+          <c:w val="0.90526823071571882"/>
+          <c:h val="0.71951640530599781"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -207,13 +217,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.65735966742953544"/>
-                  <c:y val="-0.51336537823159967"/>
+                  <c:x val="-0.65360460544224541"/>
+                  <c:y val="-0.20655548326273718"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -367,13 +378,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.9323197596459218E-2"/>
-                  <c:y val="-0.6503381976072552"/>
+                  <c:x val="-2.4394191443099063E-2"/>
+                  <c:y val="-0.65114551659120179"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1548,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
